--- a/SBLTools/bin/Debug/Book1.xlsx
+++ b/SBLTools/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9ca38cec5b15407a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R3c7371bb6a04416b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="437" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R60de8ad2e17f445f"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0c72c47d2389488b"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{011542a5-57b0-4b76-a8e9-d9f6cfc8a5d9}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{bd70cc0a-5e3e-4100-996e-36feb60d7f90}">
   <we:reference id="bcd83fb4-e3c2-49e6-8294-0439079efbb5" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
